--- a/outputs-HGR-r202-archive/g__Pediococcus.xlsx
+++ b/outputs-HGR-r202-archive/g__Pediococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,7 +479,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -519,7 +519,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -539,7 +539,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -559,7 +559,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -579,7 +579,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89852.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -659,7 +659,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -679,7 +679,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -691,106 +691,6 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90441.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90730.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90941.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT90963.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91014.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>s__Pediococcus acidilactici</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>s__Pediococcus acidilactici</t>
         </is>
